--- a/unique_items.xlsx
+++ b/unique_items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4013"/>
+  <dimension ref="A1:A4010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26021,2504 +26021,2483 @@
     <row r="3656">
       <c r="A3656" t="inlineStr">
         <is>
-          <t>crushed ctn</t>
+          <t>SET 10 CARDS PERFECT POST 17090</t>
         </is>
       </c>
     </row>
     <row r="3657">
       <c r="A3657" t="inlineStr">
         <is>
-          <t>SET 10 CARDS PERFECT POST 17090</t>
+          <t>SET 10 CARD CHRISTMAS WELCOME 17112</t>
         </is>
       </c>
     </row>
     <row r="3658">
       <c r="A3658" t="inlineStr">
         <is>
-          <t>SET 10 CARD CHRISTMAS WELCOME 17112</t>
+          <t>SET 10 CARDS XMAS CHOIR 17068</t>
         </is>
       </c>
     </row>
     <row r="3659">
       <c r="A3659" t="inlineStr">
         <is>
-          <t>SET 10 CARDS XMAS CHOIR 17068</t>
+          <t>MINT DINER CLOCK</t>
         </is>
       </c>
     </row>
     <row r="3660">
       <c r="A3660" t="inlineStr">
         <is>
-          <t>MINT DINER CLOCK</t>
+          <t>BUTTERFLY CUSHION COVER</t>
         </is>
       </c>
     </row>
     <row r="3661">
       <c r="A3661" t="inlineStr">
         <is>
-          <t>BUTTERFLY CUSHION COVER</t>
+          <t>BELLE JARDINIERE CUSHION COVER</t>
         </is>
       </c>
     </row>
     <row r="3662">
       <c r="A3662" t="inlineStr">
         <is>
-          <t>BELLE JARDINIERE CUSHION COVER</t>
+          <t>POSTE FRANCE CUSHION COVER</t>
         </is>
       </c>
     </row>
     <row r="3663">
       <c r="A3663" t="inlineStr">
         <is>
-          <t>POSTE FRANCE CUSHION COVER</t>
+          <t>SET OF 2 TRAYS HOME SWEET HOME</t>
         </is>
       </c>
     </row>
     <row r="3664">
       <c r="A3664" t="inlineStr">
         <is>
-          <t>SET OF 2 TRAYS HOME SWEET HOME</t>
+          <t>HOME SWEET HOME CUSHION COVER</t>
         </is>
       </c>
     </row>
     <row r="3665">
       <c r="A3665" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME CUSHION COVER</t>
+          <t>STOOL HOME SWEET HOME</t>
         </is>
       </c>
     </row>
     <row r="3666">
       <c r="A3666" t="inlineStr">
         <is>
-          <t>STOOL HOME SWEET HOME</t>
+          <t>FOOT STOOL HOME SWEET HOME</t>
         </is>
       </c>
     </row>
     <row r="3667">
       <c r="A3667" t="inlineStr">
         <is>
-          <t>FOOT STOOL HOME SWEET HOME</t>
+          <t>PACK OF 12 DOLLY GIRL TISSUES</t>
         </is>
       </c>
     </row>
     <row r="3668">
       <c r="A3668" t="inlineStr">
         <is>
-          <t>PACK OF 12 DOLLY GIRL TISSUES</t>
+          <t>HOME SWEET HOME HANGING HEART</t>
         </is>
       </c>
     </row>
     <row r="3669">
       <c r="A3669" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME HANGING HEART</t>
+          <t>TRELLIS COAT RACK</t>
         </is>
       </c>
     </row>
     <row r="3670">
       <c r="A3670" t="inlineStr">
         <is>
-          <t>TRELLIS COAT RACK</t>
+          <t>HANGING HEART BONHEUR</t>
         </is>
       </c>
     </row>
     <row r="3671">
       <c r="A3671" t="inlineStr">
         <is>
-          <t>HANGING HEART BONHEUR</t>
+          <t>LA JARDIN BOTANIQUE CUSHION COVER</t>
         </is>
       </c>
     </row>
     <row r="3672">
       <c r="A3672" t="inlineStr">
         <is>
-          <t>LA JARDIN BOTANIQUE CUSHION COVER</t>
+          <t>STORAGE TIN HOME SWEET HOME</t>
         </is>
       </c>
     </row>
     <row r="3673">
       <c r="A3673" t="inlineStr">
         <is>
-          <t>STORAGE TIN HOME SWEET HOME</t>
+          <t>ZINC BOX SIGN HOME</t>
         </is>
       </c>
     </row>
     <row r="3674">
       <c r="A3674" t="inlineStr">
         <is>
-          <t>ZINC BOX SIGN HOME</t>
+          <t>GINGHAM RECIPE BOOK BOX</t>
         </is>
       </c>
     </row>
     <row r="3675">
       <c r="A3675" t="inlineStr">
         <is>
-          <t>GINGHAM RECIPE BOOK BOX</t>
+          <t>HOME SWEET HOME BLACKBOARD</t>
         </is>
       </c>
     </row>
     <row r="3676">
       <c r="A3676" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME BLACKBOARD</t>
+          <t>HOME SWEET HOME KEY HOLDER</t>
         </is>
       </c>
     </row>
     <row r="3677">
       <c r="A3677" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME KEY HOLDER</t>
+          <t>HOME SWEET HOME 2 DRAWER CABINET</t>
         </is>
       </c>
     </row>
     <row r="3678">
       <c r="A3678" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME 2 DRAWER CABINET</t>
+          <t>PACK OF 12 RED APPLE TISSUES</t>
         </is>
       </c>
     </row>
     <row r="3679">
       <c r="A3679" t="inlineStr">
         <is>
-          <t>PACK OF 12 RED APPLE TISSUES</t>
+          <t>PACK OF 12 VINTAGE LEAF TISSUES</t>
         </is>
       </c>
     </row>
     <row r="3680">
       <c r="A3680" t="inlineStr">
         <is>
-          <t>PACK OF 12 VINTAGE LEAF TISSUES</t>
+          <t>PACK OF 12 VINTAGE DOILY TISSUES</t>
         </is>
       </c>
     </row>
     <row r="3681">
       <c r="A3681" t="inlineStr">
         <is>
-          <t>PACK OF 12 VINTAGE DOILY TISSUES</t>
+          <t>HOME SWEEET HOME 3 PEG HANGER</t>
         </is>
       </c>
     </row>
     <row r="3682">
       <c r="A3682" t="inlineStr">
         <is>
-          <t>HOME SWEEET HOME 3 PEG HANGER</t>
+          <t>LETTER HOLDER HOME SWEET HOME</t>
         </is>
       </c>
     </row>
     <row r="3683">
       <c r="A3683" t="inlineStr">
         <is>
-          <t>LETTER HOLDER HOME SWEET HOME</t>
+          <t>GIFT BAG LARGE 50'S CHRISTMAS</t>
         </is>
       </c>
     </row>
     <row r="3684">
       <c r="A3684" t="inlineStr">
         <is>
-          <t>GIFT BAG LARGE 50'S CHRISTMAS</t>
+          <t>METAL SIGN DROP YOUR PANTS</t>
         </is>
       </c>
     </row>
     <row r="3685">
       <c r="A3685" t="inlineStr">
         <is>
-          <t>METAL SIGN DROP YOUR PANTS</t>
+          <t>HEART MIRROR ANTIQUE WHITE</t>
         </is>
       </c>
     </row>
     <row r="3686">
       <c r="A3686" t="inlineStr">
         <is>
-          <t>HEART MIRROR ANTIQUE WHITE</t>
+          <t>SPACEBOY ROCKET LOLLY MAKERS</t>
         </is>
       </c>
     </row>
     <row r="3687">
       <c r="A3687" t="inlineStr">
         <is>
-          <t>SPACEBOY ROCKET LOLLY MAKERS</t>
+          <t>SHELF WITH 4 HOOKS HOME SWEET HOME</t>
         </is>
       </c>
     </row>
     <row r="3688">
       <c r="A3688" t="inlineStr">
         <is>
-          <t>SHELF WITH 4 HOOKS HOME SWEET HOME</t>
+          <t>ENAMEL DINNER PLATE PANTRY</t>
         </is>
       </c>
     </row>
     <row r="3689">
       <c r="A3689" t="inlineStr">
         <is>
-          <t>ENAMEL DINNER PLATE PANTRY</t>
+          <t>SET 10 CARDS 12 DAYS WRAP  17058</t>
         </is>
       </c>
     </row>
     <row r="3690">
       <c r="A3690" t="inlineStr">
         <is>
-          <t>SET 10 CARDS 12 DAYS WRAP  17058</t>
+          <t>SET 10 CARDS OUT OF ORDER 17216</t>
         </is>
       </c>
     </row>
     <row r="3691">
       <c r="A3691" t="inlineStr">
         <is>
-          <t>SET 10 CARDS OUT OF ORDER 17216</t>
+          <t>HOME SWEET HOME HOOK</t>
         </is>
       </c>
     </row>
     <row r="3692">
       <c r="A3692" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME HOOK</t>
+          <t>BATHROOM HOOK</t>
         </is>
       </c>
     </row>
     <row r="3693">
       <c r="A3693" t="inlineStr">
         <is>
-          <t>BATHROOM HOOK</t>
+          <t>HOME SWEET HOME 3 PEG HANGER</t>
         </is>
       </c>
     </row>
     <row r="3694">
       <c r="A3694" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME 3 PEG HANGER</t>
+          <t>SET 10 CARDS SCOTTIE DOG 17211</t>
         </is>
       </c>
     </row>
     <row r="3695">
       <c r="A3695" t="inlineStr">
         <is>
-          <t>SET 10 CARDS SCOTTIE DOG 17211</t>
+          <t>PHOTO FRAME LINEN AND LACE SMALL</t>
         </is>
       </c>
     </row>
     <row r="3696">
       <c r="A3696" t="inlineStr">
         <is>
-          <t>PHOTO FRAME LINEN AND LACE SMALL</t>
+          <t>RUSTIC MIRROR WITH LACE HEART</t>
         </is>
       </c>
     </row>
     <row r="3697">
       <c r="A3697" t="inlineStr">
         <is>
-          <t>RUSTIC MIRROR WITH LACE HEART</t>
+          <t>PHOTO FRAME LINEN AND LACE LARGE</t>
         </is>
       </c>
     </row>
     <row r="3698">
       <c r="A3698" t="inlineStr">
         <is>
-          <t>PHOTO FRAME LINEN AND LACE LARGE</t>
+          <t>PANTRY HOOK BALLOON WHISK</t>
         </is>
       </c>
     </row>
     <row r="3699">
       <c r="A3699" t="inlineStr">
         <is>
-          <t>PANTRY HOOK BALLOON WHISK</t>
+          <t>SET 10 XMAS CARDS &amp; BADGES 17070</t>
         </is>
       </c>
     </row>
     <row r="3700">
       <c r="A3700" t="inlineStr">
         <is>
-          <t>SET 10 XMAS CARDS &amp; BADGES 17070</t>
+          <t>SET 10 CARDS JINGLE BELLS 16957</t>
         </is>
       </c>
     </row>
     <row r="3701">
       <c r="A3701" t="inlineStr">
         <is>
-          <t>SET 10 CARDS JINGLE BELLS 16957</t>
+          <t>CURIO CABINET LINEN AND LACE</t>
         </is>
       </c>
     </row>
     <row r="3702">
       <c r="A3702" t="inlineStr">
         <is>
-          <t>CURIO CABINET LINEN AND LACE</t>
+          <t>WOODLAND BUNNIES LOLLY MAKERS</t>
         </is>
       </c>
     </row>
     <row r="3703">
       <c r="A3703" t="inlineStr">
         <is>
-          <t>WOODLAND BUNNIES LOLLY MAKERS</t>
+          <t>PANTRY 3 HOOK ROLLING PIN HANGER</t>
         </is>
       </c>
     </row>
     <row r="3704">
       <c r="A3704" t="inlineStr">
         <is>
-          <t>PANTRY 3 HOOK ROLLING PIN HANGER</t>
+          <t>PANTRY HOOK SPATULA</t>
         </is>
       </c>
     </row>
     <row r="3705">
       <c r="A3705" t="inlineStr">
         <is>
-          <t>PANTRY HOOK SPATULA</t>
+          <t>VINTAGE COFFEE GRINDER BOX</t>
         </is>
       </c>
     </row>
     <row r="3706">
       <c r="A3706" t="inlineStr">
         <is>
-          <t>VINTAGE COFFEE GRINDER BOX</t>
+          <t>3 RAFFIA RIBBONS VINTAGE CHRISTMAS</t>
         </is>
       </c>
     </row>
     <row r="3707">
       <c r="A3707" t="inlineStr">
         <is>
-          <t>3 RAFFIA RIBBONS VINTAGE CHRISTMAS</t>
+          <t>LAVENDER TOILETTE BOTTLE</t>
         </is>
       </c>
     </row>
     <row r="3708">
       <c r="A3708" t="inlineStr">
         <is>
-          <t>LAVENDER TOILETTE BOTTLE</t>
+          <t>HOME SWEET HOME BOTTLE</t>
         </is>
       </c>
     </row>
     <row r="3709">
       <c r="A3709" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME BOTTLE</t>
+          <t>3 RAFFIA RIBBONS 50'S CHRISTMAS</t>
         </is>
       </c>
     </row>
     <row r="3710">
       <c r="A3710" t="inlineStr">
         <is>
-          <t>3 RAFFIA RIBBONS 50'S CHRISTMAS</t>
+          <t>I LOVE LONDON MINI BACKPACK</t>
         </is>
       </c>
     </row>
     <row r="3711">
       <c r="A3711" t="inlineStr">
         <is>
-          <t>I LOVE LONDON MINI BACKPACK</t>
+          <t>DOLLY GIRL MINI BACKPACK</t>
         </is>
       </c>
     </row>
     <row r="3712">
       <c r="A3712" t="inlineStr">
         <is>
-          <t>DOLLY GIRL MINI BACKPACK</t>
+          <t>SPACEBOY MINI BACKPACK</t>
         </is>
       </c>
     </row>
     <row r="3713">
       <c r="A3713" t="inlineStr">
         <is>
-          <t>SPACEBOY MINI BACKPACK</t>
+          <t>EMBOSSED HEART TRINKET BOX</t>
         </is>
       </c>
     </row>
     <row r="3714">
       <c r="A3714" t="inlineStr">
         <is>
-          <t>EMBOSSED HEART TRINKET BOX</t>
+          <t>WOODLAND MINI BACKPACK</t>
         </is>
       </c>
     </row>
     <row r="3715">
       <c r="A3715" t="inlineStr">
         <is>
-          <t>WOODLAND MINI BACKPACK</t>
+          <t>PAINTED HEART WREATH WITH BELL</t>
         </is>
       </c>
     </row>
     <row r="3716">
       <c r="A3716" t="inlineStr">
         <is>
-          <t>PAINTED HEART WREATH WITH BELL</t>
+          <t>CHAMBRE HOOK</t>
         </is>
       </c>
     </row>
     <row r="3717">
       <c r="A3717" t="inlineStr">
         <is>
-          <t>CHAMBRE HOOK</t>
+          <t>SET 10 CARDS RED RIDING HOOD 17214</t>
         </is>
       </c>
     </row>
     <row r="3718">
       <c r="A3718" t="inlineStr">
         <is>
-          <t>SET 10 CARDS RED RIDING HOOD 17214</t>
+          <t>SET 10 CARDS HATS &amp; STOCKINGS 17081</t>
         </is>
       </c>
     </row>
     <row r="3719">
       <c r="A3719" t="inlineStr">
         <is>
-          <t>SET 10 CARDS HATS &amp; STOCKINGS 17081</t>
+          <t>CHRISTMAS HANGING SNOWFLAKE</t>
         </is>
       </c>
     </row>
     <row r="3720">
       <c r="A3720" t="inlineStr">
         <is>
-          <t>CHRISTMAS HANGING SNOWFLAKE</t>
+          <t>PANTRY HOOK TEA STRAINER</t>
         </is>
       </c>
     </row>
     <row r="3721">
       <c r="A3721" t="inlineStr">
         <is>
-          <t>PANTRY HOOK TEA STRAINER</t>
+          <t>SET 6 CARDS SPARKLY REINDEER 17262</t>
         </is>
       </c>
     </row>
     <row r="3722">
       <c r="A3722" t="inlineStr">
         <is>
-          <t>SET 6 CARDS SPARKLY REINDEER 17262</t>
+          <t>SET 10 CARDS MAGICAL TREE 17086</t>
         </is>
       </c>
     </row>
     <row r="3723">
       <c r="A3723" t="inlineStr">
         <is>
-          <t>SET 10 CARDS MAGICAL TREE 17086</t>
+          <t>PANTRY CHOPPING BOARD</t>
         </is>
       </c>
     </row>
     <row r="3724">
       <c r="A3724" t="inlineStr">
         <is>
-          <t>PANTRY CHOPPING BOARD</t>
+          <t>ACRYLIC HANGING JEWEL,PINK</t>
         </is>
       </c>
     </row>
     <row r="3725">
       <c r="A3725" t="inlineStr">
         <is>
-          <t>ACRYLIC HANGING JEWEL,PINK</t>
+          <t>BLUE CLIMBING HYDRANGA ART FLOWER</t>
         </is>
       </c>
     </row>
     <row r="3726">
       <c r="A3726" t="inlineStr">
         <is>
-          <t>BLUE CLIMBING HYDRANGA ART FLOWER</t>
+          <t>LE JARDIN BOTANIQUE CUSHION COVER</t>
         </is>
       </c>
     </row>
     <row r="3727">
       <c r="A3727" t="inlineStr">
         <is>
-          <t>OOPS ! adjustment</t>
+          <t>FLOWER FAIRY 5 SUMMER DRAW LINERS</t>
         </is>
       </c>
     </row>
     <row r="3728">
       <c r="A3728" t="inlineStr">
         <is>
-          <t>LE JARDIN BOTANIQUE CUSHION COVER</t>
+          <t>SET 10 CARDS DRESSING UP 17077</t>
         </is>
       </c>
     </row>
     <row r="3729">
       <c r="A3729" t="inlineStr">
         <is>
-          <t>FLOWER FAIRY 5 SUMMER DRAW LINERS</t>
+          <t>SET 10 CARDS HANGING BAUBLES 17080</t>
         </is>
       </c>
     </row>
     <row r="3730">
       <c r="A3730" t="inlineStr">
         <is>
-          <t>SET 10 CARDS DRESSING UP 17077</t>
+          <t>PLAYING CARDS KEEP CALM &amp; CARRY ON</t>
         </is>
       </c>
     </row>
     <row r="3731">
       <c r="A3731" t="inlineStr">
         <is>
-          <t>SET 10 CARDS HANGING BAUBLES 17080</t>
+          <t>SET 12 COLOURING PENCILS DOILY</t>
         </is>
       </c>
     </row>
     <row r="3732">
       <c r="A3732" t="inlineStr">
         <is>
-          <t>PLAYING CARDS KEEP CALM &amp; CARRY ON</t>
+          <t>SET 12 COLOUR PENCILS SPACEBOY</t>
         </is>
       </c>
     </row>
     <row r="3733">
       <c r="A3733" t="inlineStr">
         <is>
-          <t>SET 12 COLOURING PENCILS DOILY</t>
+          <t>PLAYING CARDS JUBILEE UNION JACK</t>
         </is>
       </c>
     </row>
     <row r="3734">
       <c r="A3734" t="inlineStr">
         <is>
-          <t>SET 12 COLOUR PENCILS SPACEBOY</t>
+          <t>SET 36 COLOUR PENCILS SPACEBOY</t>
         </is>
       </c>
     </row>
     <row r="3735">
       <c r="A3735" t="inlineStr">
         <is>
-          <t>PLAYING CARDS JUBILEE UNION JACK</t>
+          <t>MINI PLAYING CARDS SPACEBOY</t>
         </is>
       </c>
     </row>
     <row r="3736">
       <c r="A3736" t="inlineStr">
         <is>
-          <t>SET 36 COLOUR PENCILS SPACEBOY</t>
+          <t>PLAYING CARDS VINTAGE DOILEY</t>
         </is>
       </c>
     </row>
     <row r="3737">
       <c r="A3737" t="inlineStr">
         <is>
-          <t>MINI PLAYING CARDS SPACEBOY</t>
+          <t>SET 36 COLOUR PENCILS DOILEY</t>
         </is>
       </c>
     </row>
     <row r="3738">
       <c r="A3738" t="inlineStr">
         <is>
-          <t>PLAYING CARDS VINTAGE DOILEY</t>
+          <t>SET 12 COLOUR PENCILS DOILEY</t>
         </is>
       </c>
     </row>
     <row r="3739">
       <c r="A3739" t="inlineStr">
         <is>
-          <t>SET 36 COLOUR PENCILS DOILEY</t>
+          <t>PACK OF 12 DOILEY TISSUES</t>
         </is>
       </c>
     </row>
     <row r="3740">
       <c r="A3740" t="inlineStr">
         <is>
-          <t>SET 12 COLOUR PENCILS DOILEY</t>
+          <t>VINTAGE DOILY TRAVEL SEWING KIT</t>
         </is>
       </c>
     </row>
     <row r="3741">
       <c r="A3741" t="inlineStr">
         <is>
-          <t>PACK OF 12 DOILEY TISSUES</t>
+          <t>SET 12 COLOUR PENCILS LOVE LONDON</t>
         </is>
       </c>
     </row>
     <row r="3742">
       <c r="A3742" t="inlineStr">
         <is>
-          <t>VINTAGE DOILY TRAVEL SEWING KIT</t>
+          <t>SET 36 COLOUR PENCILS LOVE LONDON</t>
         </is>
       </c>
     </row>
     <row r="3743">
       <c r="A3743" t="inlineStr">
         <is>
-          <t>SET 12 COLOUR PENCILS LOVE LONDON</t>
+          <t>EMBROIDERED RIBBON REEL RUBY</t>
         </is>
       </c>
     </row>
     <row r="3744">
       <c r="A3744" t="inlineStr">
         <is>
-          <t>SET 36 COLOUR PENCILS LOVE LONDON</t>
+          <t>EMBROIDERED RIBBON REEL EMILY</t>
         </is>
       </c>
     </row>
     <row r="3745">
       <c r="A3745" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL RUBY</t>
+          <t>EMBROIDERED RIBBON REEL REBECCA</t>
         </is>
       </c>
     </row>
     <row r="3746">
       <c r="A3746" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL EMILY</t>
+          <t>SET 36 COLOURING PENCILS DOILY</t>
         </is>
       </c>
     </row>
     <row r="3747">
       <c r="A3747" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL REBECCA</t>
+          <t>SET 12 COLOUR PENCILS DOLLY GIRL</t>
         </is>
       </c>
     </row>
     <row r="3748">
       <c r="A3748" t="inlineStr">
         <is>
-          <t>SET 36 COLOURING PENCILS DOILY</t>
+          <t>PLAYING CARDS I LOVE LONDON</t>
         </is>
       </c>
     </row>
     <row r="3749">
       <c r="A3749" t="inlineStr">
         <is>
-          <t>SET 12 COLOUR PENCILS DOLLY GIRL</t>
+          <t>SET 36 COLOUR PENCILS DOLLY GIRL</t>
         </is>
       </c>
     </row>
     <row r="3750">
       <c r="A3750" t="inlineStr">
         <is>
-          <t>PLAYING CARDS I LOVE LONDON</t>
+          <t>EMBROIDERED RIBBON REEL ROSIE</t>
         </is>
       </c>
     </row>
     <row r="3751">
       <c r="A3751" t="inlineStr">
         <is>
-          <t>SET 36 COLOUR PENCILS DOLLY GIRL</t>
+          <t>EMBROIDERED RIBBON REEL DAISY</t>
         </is>
       </c>
     </row>
     <row r="3752">
       <c r="A3752" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL ROSIE</t>
+          <t>EMBROIDERED RIBBON REEL SALLY</t>
         </is>
       </c>
     </row>
     <row r="3753">
       <c r="A3753" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL DAISY</t>
+          <t>EMBROIDERED RIBBON REEL RACHEL</t>
         </is>
       </c>
     </row>
     <row r="3754">
       <c r="A3754" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL SALLY</t>
+          <t>MINI PLAYING CARDS GYMKHANA</t>
         </is>
       </c>
     </row>
     <row r="3755">
       <c r="A3755" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL RACHEL</t>
+          <t>MINI PLAYING CARDS DOLLY GIRL</t>
         </is>
       </c>
     </row>
     <row r="3756">
       <c r="A3756" t="inlineStr">
         <is>
-          <t>MINI PLAYING CARDS GYMKHANA</t>
+          <t>MINI PLAYING CARDS FUN FAIR</t>
         </is>
       </c>
     </row>
     <row r="3757">
       <c r="A3757" t="inlineStr">
         <is>
-          <t>MINI PLAYING CARDS DOLLY GIRL</t>
+          <t>MINI PLAYING CARDS BUFFALO BILL</t>
         </is>
       </c>
     </row>
     <row r="3758">
       <c r="A3758" t="inlineStr">
         <is>
-          <t>MINI PLAYING CARDS FUN FAIR</t>
+          <t>EMBROIDERED RIBBON REEL SUSIE</t>
         </is>
       </c>
     </row>
     <row r="3759">
       <c r="A3759" t="inlineStr">
         <is>
-          <t>MINI PLAYING CARDS BUFFALO BILL</t>
+          <t>SET 10 CARD PERFECT NATIVITY 17089</t>
         </is>
       </c>
     </row>
     <row r="3760">
       <c r="A3760" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL SUSIE</t>
+          <t>ROUND CACTUS CANDLE</t>
         </is>
       </c>
     </row>
     <row r="3761">
       <c r="A3761" t="inlineStr">
         <is>
-          <t>SET 10 CARD PERFECT NATIVITY 17089</t>
+          <t>DOLLY GIRL MINI RUCKSACK</t>
         </is>
       </c>
     </row>
     <row r="3762">
       <c r="A3762" t="inlineStr">
         <is>
-          <t>ROUND CACTUS CANDLE</t>
+          <t>SPACEBOY MINI RUCKSACK</t>
         </is>
       </c>
     </row>
     <row r="3763">
       <c r="A3763" t="inlineStr">
         <is>
-          <t>DOLLY GIRL MINI RUCKSACK</t>
+          <t>PLAYING CARDS VINTAGE DOILY</t>
         </is>
       </c>
     </row>
     <row r="3764">
       <c r="A3764" t="inlineStr">
         <is>
-          <t>SPACEBOY MINI RUCKSACK</t>
+          <t>SET 10 CARDS CHRISTMAS ROBIN 17095</t>
         </is>
       </c>
     </row>
     <row r="3765">
       <c r="A3765" t="inlineStr">
         <is>
-          <t>PLAYING CARDS VINTAGE DOILY</t>
+          <t>PACK OF 12 CHRISTMAS FUN CARDS</t>
         </is>
       </c>
     </row>
     <row r="3766">
       <c r="A3766" t="inlineStr">
         <is>
-          <t>SET 10 CARDS CHRISTMAS ROBIN 17095</t>
+          <t>SET 10 CARDS SNOWY SNOWDROPS  17100</t>
         </is>
       </c>
     </row>
     <row r="3767">
       <c r="A3767" t="inlineStr">
         <is>
-          <t>PACK OF 12 CHRISTMAS FUN CARDS</t>
+          <t>SET 10 CARDS CHEERFUL ROBIN 17065</t>
         </is>
       </c>
     </row>
     <row r="3768">
       <c r="A3768" t="inlineStr">
         <is>
-          <t>SET 10 CARDS SNOWY SNOWDROPS  17100</t>
+          <t>EMBROIDERED RIBBON REEL SOPHIE</t>
         </is>
       </c>
     </row>
     <row r="3769">
       <c r="A3769" t="inlineStr">
         <is>
-          <t>SET 10 CARDS CHEERFUL ROBIN 17065</t>
+          <t>EMBROIDERED RIBBON REEL CLAIRE</t>
         </is>
       </c>
     </row>
     <row r="3770">
       <c r="A3770" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL SOPHIE</t>
+          <t>VINTAGE DOILY DELUXE SEWING KIT</t>
         </is>
       </c>
     </row>
     <row r="3771">
       <c r="A3771" t="inlineStr">
         <is>
-          <t>EMBROIDERED RIBBON REEL CLAIRE</t>
+          <t>SET 10 CARDS ROBIN WATERPUMP  17096</t>
         </is>
       </c>
     </row>
     <row r="3772">
       <c r="A3772" t="inlineStr">
         <is>
-          <t>VINTAGE DOILY DELUXE SEWING KIT</t>
+          <t>SET 10 CARDS FILIGREE BAUBLE 16961</t>
         </is>
       </c>
     </row>
     <row r="3773">
       <c r="A3773" t="inlineStr">
         <is>
-          <t>SET 10 CARDS ROBIN WATERPUMP  17096</t>
+          <t>SMOKEY GREY COLOUR GLASS</t>
         </is>
       </c>
     </row>
     <row r="3774">
       <c r="A3774" t="inlineStr">
         <is>
-          <t>SET 10 CARDS FILIGREE BAUBLE 16961</t>
+          <t>SWEETHEART BIRD HOUSE</t>
         </is>
       </c>
     </row>
     <row r="3775">
       <c r="A3775" t="inlineStr">
         <is>
-          <t>SMOKEY GREY COLOUR GLASS</t>
+          <t>TUSCAN VILLA DOVECOTE</t>
         </is>
       </c>
     </row>
     <row r="3776">
       <c r="A3776" t="inlineStr">
         <is>
-          <t>SWEETHEART BIRD HOUSE</t>
+          <t>CARD HOLDER LOVE BIRD SMALL</t>
         </is>
       </c>
     </row>
     <row r="3777">
       <c r="A3777" t="inlineStr">
         <is>
-          <t>TUSCAN VILLA DOVECOTE</t>
+          <t>HEART TRELLISTRIPLE T-LIGHT HOLDER</t>
         </is>
       </c>
     </row>
     <row r="3778">
       <c r="A3778" t="inlineStr">
         <is>
-          <t>CARD HOLDER LOVE BIRD SMALL</t>
+          <t>VINTAGE LEAF CHOPPING BOARD</t>
         </is>
       </c>
     </row>
     <row r="3779">
       <c r="A3779" t="inlineStr">
         <is>
-          <t>HEART TRELLISTRIPLE T-LIGHT HOLDER</t>
+          <t>POPPY FIELDS CHOPPING BOARD</t>
         </is>
       </c>
     </row>
     <row r="3780">
       <c r="A3780" t="inlineStr">
         <is>
-          <t>VINTAGE LEAF CHOPPING BOARD</t>
+          <t>RED APPLES CHOPPING BOARD</t>
         </is>
       </c>
     </row>
     <row r="3781">
       <c r="A3781" t="inlineStr">
         <is>
-          <t>POPPY FIELDS CHOPPING BOARD</t>
+          <t>SIX DRAWER OFFICE TIDY</t>
         </is>
       </c>
     </row>
     <row r="3782">
       <c r="A3782" t="inlineStr">
         <is>
-          <t>RED APPLES CHOPPING BOARD</t>
+          <t>VEGETABLE GARDEN CHOPPING BOARD</t>
         </is>
       </c>
     </row>
     <row r="3783">
       <c r="A3783" t="inlineStr">
         <is>
-          <t>SIX DRAWER OFFICE TIDY</t>
+          <t>SET 10 CARDS CHRISTMAS TREE 16955</t>
         </is>
       </c>
     </row>
     <row r="3784">
       <c r="A3784" t="inlineStr">
         <is>
-          <t>VEGETABLE GARDEN CHOPPING BOARD</t>
+          <t>NINE DRAWER OFFICE TIDY</t>
         </is>
       </c>
     </row>
     <row r="3785">
       <c r="A3785" t="inlineStr">
         <is>
-          <t>SET 10 CARDS CHRISTMAS TREE 16955</t>
+          <t>CARD HOLDER LOVE BIRD LARGE</t>
         </is>
       </c>
     </row>
     <row r="3786">
       <c r="A3786" t="inlineStr">
         <is>
-          <t>NINE DRAWER OFFICE TIDY</t>
+          <t>HORSE &amp; PONY WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3787">
       <c r="A3787" t="inlineStr">
         <is>
-          <t>CARD HOLDER LOVE BIRD LARGE</t>
+          <t>BICYCLE SAFTEY WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3788">
       <c r="A3788" t="inlineStr">
         <is>
-          <t>HORSE &amp; PONY WALL ART</t>
+          <t>STOP FOR TEA WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3789">
       <c r="A3789" t="inlineStr">
         <is>
-          <t>BICYCLE SAFTEY WALL ART</t>
+          <t>WALL ART CLASSIC PUDDINGS</t>
         </is>
       </c>
     </row>
     <row r="3790">
       <c r="A3790" t="inlineStr">
         <is>
-          <t>STOP FOR TEA WALL ART</t>
+          <t>BUFFALO BILL WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3791">
       <c r="A3791" t="inlineStr">
         <is>
-          <t>WALL ART CLASSIC PUDDINGS</t>
+          <t>WALL ART WORK REST AND PLAY</t>
         </is>
       </c>
     </row>
     <row r="3792">
       <c r="A3792" t="inlineStr">
         <is>
-          <t>BUFFALO BILL WALL ART</t>
+          <t>WALL ART LOVES' SECRET</t>
         </is>
       </c>
     </row>
     <row r="3793">
       <c r="A3793" t="inlineStr">
         <is>
-          <t>WALL ART WORK REST AND PLAY</t>
+          <t>DOG AND BALL WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3794">
       <c r="A3794" t="inlineStr">
         <is>
-          <t>WALL ART LOVES' SECRET</t>
+          <t>DOG LICENCE WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3795">
       <c r="A3795" t="inlineStr">
         <is>
-          <t>DOG AND BALL WALL ART</t>
+          <t>WALL ART GARDEN HAVEN</t>
         </is>
       </c>
     </row>
     <row r="3796">
       <c r="A3796" t="inlineStr">
         <is>
-          <t>DOG LICENCE WALL ART</t>
+          <t>70'S ALPHABET WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3797">
       <c r="A3797" t="inlineStr">
         <is>
-          <t>WALL ART GARDEN HAVEN</t>
+          <t>SPACEBOY WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3798">
       <c r="A3798" t="inlineStr">
         <is>
-          <t>70'S ALPHABET WALL ART</t>
+          <t>KEEP CALM WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3799">
       <c r="A3799" t="inlineStr">
         <is>
-          <t>SPACEBOY WALL ART</t>
+          <t>WALL ART ONLY ONE PERSON</t>
         </is>
       </c>
     </row>
     <row r="3800">
       <c r="A3800" t="inlineStr">
         <is>
-          <t>KEEP CALM WALL ART</t>
+          <t>WALL ART VINTAGE HEART</t>
         </is>
       </c>
     </row>
     <row r="3801">
       <c r="A3801" t="inlineStr">
         <is>
-          <t>WALL ART ONLY ONE PERSON</t>
+          <t>CAT AND BIRD WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3802">
       <c r="A3802" t="inlineStr">
         <is>
-          <t>WALL ART VINTAGE HEART</t>
+          <t>TREASURE AHOY WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3803">
       <c r="A3803" t="inlineStr">
         <is>
-          <t>CAT AND BIRD WALL ART</t>
+          <t>WALL ART BIG LOVE</t>
         </is>
       </c>
     </row>
     <row r="3804">
       <c r="A3804" t="inlineStr">
         <is>
-          <t>TREASURE AHOY WALL ART</t>
+          <t>ANIMALS AND NATURE WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3805">
       <c r="A3805" t="inlineStr">
         <is>
-          <t>WALL ART BIG LOVE</t>
+          <t>HANGING  BUTTERFLY T-LIGHT HOLDER</t>
         </is>
       </c>
     </row>
     <row r="3806">
       <c r="A3806" t="inlineStr">
         <is>
-          <t>ANIMALS AND NATURE WALL ART</t>
+          <t>DOLLY GIRL WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3807">
       <c r="A3807" t="inlineStr">
         <is>
-          <t>HANGING  BUTTERFLY T-LIGHT HOLDER</t>
+          <t>VILLAGE SHOW WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3808">
       <c r="A3808" t="inlineStr">
         <is>
-          <t>DOLLY GIRL WALL ART</t>
+          <t>WALL ART MID CENTURY MODERN</t>
         </is>
       </c>
     </row>
     <row r="3809">
       <c r="A3809" t="inlineStr">
         <is>
-          <t>VILLAGE SHOW WALL ART</t>
+          <t>WALL ART THE MAGIC FOREST</t>
         </is>
       </c>
     </row>
     <row r="3810">
       <c r="A3810" t="inlineStr">
         <is>
-          <t>WALL ART MID CENTURY MODERN</t>
+          <t>I LOVE LONDON WALL ART</t>
         </is>
       </c>
     </row>
     <row r="3811">
       <c r="A3811" t="inlineStr">
         <is>
-          <t>WALL ART THE MAGIC FOREST</t>
+          <t>WALL ART KEEP CALM</t>
         </is>
       </c>
     </row>
     <row r="3812">
       <c r="A3812" t="inlineStr">
         <is>
-          <t>I LOVE LONDON WALL ART</t>
+          <t>WALL ART BICYCLE SAFTEY</t>
         </is>
       </c>
     </row>
     <row r="3813">
       <c r="A3813" t="inlineStr">
         <is>
-          <t>WALL ART KEEP CALM</t>
+          <t>WALL ART BUFFALO BILL</t>
         </is>
       </c>
     </row>
     <row r="3814">
       <c r="A3814" t="inlineStr">
         <is>
-          <t>WALL ART BICYCLE SAFTEY</t>
+          <t>WALL ART VILLAGE SHOW</t>
         </is>
       </c>
     </row>
     <row r="3815">
       <c r="A3815" t="inlineStr">
         <is>
-          <t>WALL ART BUFFALO BILL</t>
+          <t>WALL ART STOP FOR TEA</t>
         </is>
       </c>
     </row>
     <row r="3816">
       <c r="A3816" t="inlineStr">
         <is>
-          <t>WALL ART VILLAGE SHOW</t>
+          <t>WALL ART DOG LICENCE</t>
         </is>
       </c>
     </row>
     <row r="3817">
       <c r="A3817" t="inlineStr">
         <is>
-          <t>WALL ART STOP FOR TEA</t>
+          <t>WALL ART SPACEBOY</t>
         </is>
       </c>
     </row>
     <row r="3818">
       <c r="A3818" t="inlineStr">
         <is>
-          <t>WALL ART DOG LICENCE</t>
+          <t>SET 10 MINI SANTA &amp; SNOWMAN  17087</t>
         </is>
       </c>
     </row>
     <row r="3819">
       <c r="A3819" t="inlineStr">
         <is>
-          <t>WALL ART SPACEBOY</t>
+          <t>SET 10 CARDS DINKY TREE 17076</t>
         </is>
       </c>
     </row>
     <row r="3820">
       <c r="A3820" t="inlineStr">
         <is>
-          <t>SET 10 MINI SANTA &amp; SNOWMAN  17087</t>
+          <t>WALL ART I LOVE LONDON</t>
         </is>
       </c>
     </row>
     <row r="3821">
       <c r="A3821" t="inlineStr">
         <is>
-          <t>SET 10 CARDS DINKY TREE 17076</t>
+          <t>WALL ART 70'S ALPHABET</t>
         </is>
       </c>
     </row>
     <row r="3822">
       <c r="A3822" t="inlineStr">
         <is>
-          <t>WALL ART I LOVE LONDON</t>
+          <t>KEY RING BASEBALL BOOT ASSORTED</t>
         </is>
       </c>
     </row>
     <row r="3823">
       <c r="A3823" t="inlineStr">
         <is>
-          <t>WALL ART 70'S ALPHABET</t>
+          <t>WALL ART HORSE &amp; PONY</t>
         </is>
       </c>
     </row>
     <row r="3824">
       <c r="A3824" t="inlineStr">
         <is>
-          <t>KEY RING BASEBALL BOOT ASSORTED</t>
+          <t>WALL ART ANIMALS AND NATURE</t>
         </is>
       </c>
     </row>
     <row r="3825">
       <c r="A3825" t="inlineStr">
         <is>
-          <t>WALL ART HORSE &amp; PONY</t>
+          <t>PINK HORSE SOCK PUPPET KIT</t>
         </is>
       </c>
     </row>
     <row r="3826">
       <c r="A3826" t="inlineStr">
         <is>
-          <t>WALL ART ANIMALS AND NATURE</t>
+          <t>HEART TRELLIS TRIPLE T-LIGHT HOLDER</t>
         </is>
       </c>
     </row>
     <row r="3827">
       <c r="A3827" t="inlineStr">
         <is>
-          <t>PINK HORSE SOCK PUPPET KIT</t>
+          <t>WALL ART CAT AND BIRD</t>
         </is>
       </c>
     </row>
     <row r="3828">
       <c r="A3828" t="inlineStr">
         <is>
-          <t>HEART TRELLIS TRIPLE T-LIGHT HOLDER</t>
+          <t>TUSCAN VILLA FEEDING STATION</t>
         </is>
       </c>
     </row>
     <row r="3829">
       <c r="A3829" t="inlineStr">
         <is>
-          <t>WALL ART CAT AND BIRD</t>
+          <t>KEY RING BASEBALL BOOT UNION JACK</t>
         </is>
       </c>
     </row>
     <row r="3830">
       <c r="A3830" t="inlineStr">
         <is>
-          <t>TUSCAN VILLA FEEDING STATION</t>
+          <t>WALL ART BICYCLE SAFETY</t>
         </is>
       </c>
     </row>
     <row r="3831">
       <c r="A3831" t="inlineStr">
         <is>
-          <t>KEY RING BASEBALL BOOT UNION JACK</t>
+          <t>WALL ART DOLLY GIRL</t>
         </is>
       </c>
     </row>
     <row r="3832">
       <c r="A3832" t="inlineStr">
         <is>
-          <t>WALL ART BICYCLE SAFETY</t>
+          <t>SET 10 CARDS 12 DAYS OF XMAS 17059</t>
         </is>
       </c>
     </row>
     <row r="3833">
       <c r="A3833" t="inlineStr">
         <is>
-          <t>WALL ART DOLLY GIRL</t>
+          <t>SET 10 CARDS POINSETTIA 17093</t>
         </is>
       </c>
     </row>
     <row r="3834">
       <c r="A3834" t="inlineStr">
         <is>
-          <t>SET 10 CARDS 12 DAYS OF XMAS 17059</t>
+          <t>SET 10 CARDS CHRISTMAS HOLLY  17259</t>
         </is>
       </c>
     </row>
     <row r="3835">
       <c r="A3835" t="inlineStr">
         <is>
-          <t>SET 10 CARDS POINSETTIA 17093</t>
+          <t>I LOVE LONDON MINI RUCKSACK</t>
         </is>
       </c>
     </row>
     <row r="3836">
       <c r="A3836" t="inlineStr">
         <is>
-          <t>SET 10 CARDS CHRISTMAS HOLLY  17259</t>
+          <t>SET 36 COLOURING PENCILS DOILEY</t>
         </is>
       </c>
     </row>
     <row r="3837">
       <c r="A3837" t="inlineStr">
         <is>
-          <t>I LOVE LONDON MINI RUCKSACK</t>
+          <t>SET 12 COLOURING PENCILS DOILEY</t>
         </is>
       </c>
     </row>
     <row r="3838">
       <c r="A3838" t="inlineStr">
         <is>
-          <t>SET 36 COLOURING PENCILS DOILEY</t>
+          <t>WOODLAND MINI RUCKSACK</t>
         </is>
       </c>
     </row>
     <row r="3839">
       <c r="A3839" t="inlineStr">
         <is>
-          <t>SET 12 COLOURING PENCILS DOILEY</t>
+          <t>WALL ART DOG AND BALL</t>
         </is>
       </c>
     </row>
     <row r="3840">
       <c r="A3840" t="inlineStr">
         <is>
-          <t>WOODLAND MINI RUCKSACK</t>
+          <t>WALL ART , LOVES' SECRET</t>
         </is>
       </c>
     </row>
     <row r="3841">
       <c r="A3841" t="inlineStr">
         <is>
-          <t>WALL ART DOG AND BALL</t>
+          <t>WALL ART,ONLY ONE PERSON</t>
         </is>
       </c>
     </row>
     <row r="3842">
       <c r="A3842" t="inlineStr">
         <is>
-          <t>WALL ART , LOVES' SECRET</t>
+          <t>WALL ART ,PUDDINGS</t>
         </is>
       </c>
     </row>
     <row r="3843">
       <c r="A3843" t="inlineStr">
         <is>
-          <t>WALL ART,ONLY ONE PERSON</t>
+          <t>SET 10 MINICARDS CUTE SNOWMAN 17071</t>
         </is>
       </c>
     </row>
     <row r="3844">
       <c r="A3844" t="inlineStr">
         <is>
-          <t>WALL ART ,PUDDINGS</t>
+          <t>TUSCAN VILLA BIRD TABLE</t>
         </is>
       </c>
     </row>
     <row r="3845">
       <c r="A3845" t="inlineStr">
         <is>
-          <t>SET 10 MINICARDS CUTE SNOWMAN 17071</t>
+          <t>VINTAGE  2 METRE FOLDING RULER</t>
         </is>
       </c>
     </row>
     <row r="3846">
       <c r="A3846" t="inlineStr">
         <is>
-          <t>TUSCAN VILLA BIRD TABLE</t>
+          <t>N0 SINGING METAL SIGN</t>
         </is>
       </c>
     </row>
     <row r="3847">
       <c r="A3847" t="inlineStr">
         <is>
-          <t>VINTAGE  2 METRE FOLDING RULER</t>
+          <t>WET/MOULDY</t>
         </is>
       </c>
     </row>
     <row r="3848">
       <c r="A3848" t="inlineStr">
         <is>
-          <t>N0 SINGING METAL SIGN</t>
+          <t>UBO-LIGHT TRIOBASE PURPLE</t>
         </is>
       </c>
     </row>
     <row r="3849">
       <c r="A3849" t="inlineStr">
         <is>
-          <t>WET/MOULDY</t>
+          <t>SILVER 2 STRAND NECKLACE-LEAF CHARM</t>
         </is>
       </c>
     </row>
     <row r="3850">
       <c r="A3850" t="inlineStr">
         <is>
-          <t>UBO-LIGHT TRIOBASE PURPLE</t>
+          <t>SILVER M.O.P. ORBIT NECKLACE</t>
         </is>
       </c>
     </row>
     <row r="3851">
       <c r="A3851" t="inlineStr">
         <is>
-          <t>SILVER 2 STRAND NECKLACE-LEAF CHARM</t>
+          <t>GOLD M.O.P. ORBIT NECKLACE</t>
         </is>
       </c>
     </row>
     <row r="3852">
       <c r="A3852" t="inlineStr">
         <is>
-          <t>SILVER M.O.P. ORBIT NECKLACE</t>
+          <t>TUSCAN VILLA DOVECOTE BIRD FEEDER</t>
         </is>
       </c>
     </row>
     <row r="3853">
       <c r="A3853" t="inlineStr">
         <is>
-          <t>GOLD M.O.P. ORBIT NECKLACE</t>
+          <t>WALL ART , THE MAGIC FOREST</t>
         </is>
       </c>
     </row>
     <row r="3854">
       <c r="A3854" t="inlineStr">
         <is>
-          <t>TUSCAN VILLA DOVECOTE BIRD FEEDER</t>
+          <t>CREAM BUNNY EASTER EGG BASKET</t>
         </is>
       </c>
     </row>
     <row r="3855">
       <c r="A3855" t="inlineStr">
         <is>
-          <t>WALL ART , THE MAGIC FOREST</t>
+          <t>PINK BUNNY EASTER EGG BASKET</t>
         </is>
       </c>
     </row>
     <row r="3856">
       <c r="A3856" t="inlineStr">
         <is>
-          <t>CREAM BUNNY EASTER EGG BASKET</t>
+          <t>BLUE BUNNY EASTER EGG BASKET</t>
         </is>
       </c>
     </row>
     <row r="3857">
       <c r="A3857" t="inlineStr">
         <is>
-          <t>PINK BUNNY EASTER EGG BASKET</t>
+          <t>WALL ART TREASURE AHOY</t>
         </is>
       </c>
     </row>
     <row r="3858">
       <c r="A3858" t="inlineStr">
         <is>
-          <t>BLUE BUNNY EASTER EGG BASKET</t>
+          <t>S/4 BLACK DISCO PARTITION PANEL</t>
         </is>
       </c>
     </row>
     <row r="3859">
       <c r="A3859" t="inlineStr">
         <is>
-          <t>WALL ART TREASURE AHOY</t>
+          <t>BLACK VINT ART DEC CRYSTAL BRACELET</t>
         </is>
       </c>
     </row>
     <row r="3860">
       <c r="A3860" t="inlineStr">
         <is>
-          <t>S/4 BLACK DISCO PARTITION PANEL</t>
+          <t>ORANGE PENDANT TRIPLE SHELL NECKLAC</t>
         </is>
       </c>
     </row>
     <row r="3861">
       <c r="A3861" t="inlineStr">
         <is>
-          <t>BLACK VINT ART DEC CRYSTAL BRACELET</t>
+          <t>BOX OF 6 CHRISTMAS CAKE DECORATIONS</t>
         </is>
       </c>
     </row>
     <row r="3862">
       <c r="A3862" t="inlineStr">
         <is>
-          <t>ORANGE PENDANT TRIPLE SHELL NECKLAC</t>
+          <t>HENRIETTA HEN MUG</t>
         </is>
       </c>
     </row>
     <row r="3863">
       <c r="A3863" t="inlineStr">
         <is>
-          <t>BOX OF 6 CHRISTMAS CAKE DECORATIONS</t>
+          <t>MILK MAIDS MUG</t>
         </is>
       </c>
     </row>
     <row r="3864">
       <c r="A3864" t="inlineStr">
         <is>
-          <t>HENRIETTA HEN MUG</t>
+          <t>EGG CUP MILKMAID INGRID</t>
         </is>
       </c>
     </row>
     <row r="3865">
       <c r="A3865" t="inlineStr">
         <is>
-          <t>MILK MAIDS MUG</t>
+          <t>PINK HANGING HEART T-LIGHT HOLDER</t>
         </is>
       </c>
     </row>
     <row r="3866">
       <c r="A3866" t="inlineStr">
         <is>
-          <t>EGG CUP MILKMAID INGRID</t>
+          <t>EGG CUP HENRIETTA HEN PINK</t>
         </is>
       </c>
     </row>
     <row r="3867">
       <c r="A3867" t="inlineStr">
         <is>
-          <t>PINK HANGING HEART T-LIGHT HOLDER</t>
+          <t>Wet pallet-thrown away</t>
         </is>
       </c>
     </row>
     <row r="3868">
       <c r="A3868" t="inlineStr">
         <is>
-          <t>EGG CUP HENRIETTA HEN PINK</t>
+          <t>SWEET HEART CAKE CARRIER</t>
         </is>
       </c>
     </row>
     <row r="3869">
       <c r="A3869" t="inlineStr">
         <is>
-          <t>Wet pallet-thrown away</t>
+          <t>T-LIGHT HOLDER HANGING LOVE BIRD</t>
         </is>
       </c>
     </row>
     <row r="3870">
       <c r="A3870" t="inlineStr">
         <is>
-          <t>SWEET HEART CAKE CARRIER</t>
+          <t>OVAL  MINI PORTRAIT FRAME</t>
         </is>
       </c>
     </row>
     <row r="3871">
       <c r="A3871" t="inlineStr">
         <is>
-          <t>T-LIGHT HOLDER HANGING LOVE BIRD</t>
+          <t>HEART MINI PORTRAIT FRAME</t>
         </is>
       </c>
     </row>
     <row r="3872">
       <c r="A3872" t="inlineStr">
         <is>
-          <t>OVAL  MINI PORTRAIT FRAME</t>
+          <t>SQUARE MINI PORTRAIT FRAME</t>
         </is>
       </c>
     </row>
     <row r="3873">
       <c r="A3873" t="inlineStr">
         <is>
-          <t>HEART MINI PORTRAIT FRAME</t>
+          <t>PEARLISED IVORY HEART LARGE</t>
         </is>
       </c>
     </row>
     <row r="3874">
       <c r="A3874" t="inlineStr">
         <is>
-          <t>SQUARE MINI PORTRAIT FRAME</t>
+          <t>SET 10 CARD KRAFT REINDEER 17084</t>
         </is>
       </c>
     </row>
     <row r="3875">
       <c r="A3875" t="inlineStr">
         <is>
-          <t>PEARLISED IVORY HEART LARGE</t>
+          <t>DOLLY CABINET 2 DRAWERS</t>
         </is>
       </c>
     </row>
     <row r="3876">
       <c r="A3876" t="inlineStr">
         <is>
-          <t>SET 10 CARD KRAFT REINDEER 17084</t>
+          <t>EGG CUP MILKMAID HELGA</t>
         </is>
       </c>
     </row>
     <row r="3877">
       <c r="A3877" t="inlineStr">
         <is>
-          <t>DOLLY CABINET 2 DRAWERS</t>
+          <t>MEDIUM PARLOUR PICTURE FRAME</t>
         </is>
       </c>
     </row>
     <row r="3878">
       <c r="A3878" t="inlineStr">
         <is>
-          <t>EGG CUP MILKMAID HELGA</t>
+          <t>VINTAGE ZINC WATERING CAN</t>
         </is>
       </c>
     </row>
     <row r="3879">
       <c r="A3879" t="inlineStr">
         <is>
-          <t>MEDIUM PARLOUR PICTURE FRAME</t>
+          <t>VINTAGE ZINC WATERING CAN SMALL</t>
         </is>
       </c>
     </row>
     <row r="3880">
       <c r="A3880" t="inlineStr">
         <is>
-          <t>VINTAGE ZINC WATERING CAN</t>
+          <t>LARGE PARLOUR PICTURE FRAME</t>
         </is>
       </c>
     </row>
     <row r="3881">
       <c r="A3881" t="inlineStr">
         <is>
-          <t>VINTAGE ZINC WATERING CAN SMALL</t>
+          <t>SMALL PARLOUR PICTURE FRAME</t>
         </is>
       </c>
     </row>
     <row r="3882">
       <c r="A3882" t="inlineStr">
         <is>
-          <t>LARGE PARLOUR PICTURE FRAME</t>
+          <t>EGG CUP HENRIETTA HEN CREAM</t>
         </is>
       </c>
     </row>
     <row r="3883">
       <c r="A3883" t="inlineStr">
         <is>
-          <t>SMALL PARLOUR PICTURE FRAME</t>
+          <t>EGG CUP MILKMAID HEIDI</t>
         </is>
       </c>
     </row>
     <row r="3884">
       <c r="A3884" t="inlineStr">
         <is>
-          <t>EGG CUP HENRIETTA HEN CREAM</t>
+          <t>VINTAGE ZINC PLANTER</t>
         </is>
       </c>
     </row>
     <row r="3885">
       <c r="A3885" t="inlineStr">
         <is>
-          <t>EGG CUP MILKMAID HEIDI</t>
+          <t>PEARLISED IVORY HEART SMALL</t>
         </is>
       </c>
     </row>
     <row r="3886">
       <c r="A3886" t="inlineStr">
         <is>
-          <t>VINTAGE ZINC PLANTER</t>
+          <t>DOLLY CABINET 3 DRAWERS</t>
         </is>
       </c>
     </row>
     <row r="3887">
       <c r="A3887" t="inlineStr">
         <is>
-          <t>PEARLISED IVORY HEART SMALL</t>
+          <t>SNACK TRAY I LOVE LONDON</t>
         </is>
       </c>
     </row>
     <row r="3888">
       <c r="A3888" t="inlineStr">
         <is>
-          <t>DOLLY CABINET 3 DRAWERS</t>
+          <t>DECROTIVEVINTAGE COFFEE GRINDER BOX</t>
         </is>
       </c>
     </row>
     <row r="3889">
       <c r="A3889" t="inlineStr">
         <is>
-          <t>SNACK TRAY I LOVE LONDON</t>
+          <t>High Resolution Image</t>
         </is>
       </c>
     </row>
     <row r="3890">
       <c r="A3890" t="inlineStr">
         <is>
-          <t>DECROTIVEVINTAGE COFFEE GRINDER BOX</t>
+          <t>WIRE EGG BASKET</t>
         </is>
       </c>
     </row>
     <row r="3891">
       <c r="A3891" t="inlineStr">
         <is>
-          <t>High Resolution Image</t>
+          <t>LANDMARK FRAME LONDON BRIDGE</t>
         </is>
       </c>
     </row>
     <row r="3892">
       <c r="A3892" t="inlineStr">
         <is>
-          <t>WIRE EGG BASKET</t>
+          <t>LANDMARK FRAME COVENT GARDEN</t>
         </is>
       </c>
     </row>
     <row r="3893">
       <c r="A3893" t="inlineStr">
         <is>
-          <t>LANDMARK FRAME LONDON BRIDGE</t>
+          <t>LANDMARK FRAME OXFORD STREET</t>
         </is>
       </c>
     </row>
     <row r="3894">
       <c r="A3894" t="inlineStr">
         <is>
-          <t>LANDMARK FRAME COVENT GARDEN</t>
+          <t>LANDMARK FRAME BAKER STREET</t>
         </is>
       </c>
     </row>
     <row r="3895">
       <c r="A3895" t="inlineStr">
         <is>
-          <t>LANDMARK FRAME OXFORD STREET</t>
+          <t>LANDMARK FRAME NOTTING HILL</t>
         </is>
       </c>
     </row>
     <row r="3896">
       <c r="A3896" t="inlineStr">
         <is>
-          <t>LANDMARK FRAME BAKER STREET</t>
+          <t>MINI LIGHTS WOODLAND MUSHROOMS</t>
         </is>
       </c>
     </row>
     <row r="3897">
       <c r="A3897" t="inlineStr">
         <is>
-          <t>LANDMARK FRAME NOTTING HILL</t>
+          <t>LANDMARK FRAME CAMDEN TOWN</t>
         </is>
       </c>
     </row>
     <row r="3898">
       <c r="A3898" t="inlineStr">
         <is>
-          <t>MINI LIGHTS WOODLAND MUSHROOMS</t>
+          <t>GARLAND, VINTAGE BELLS</t>
         </is>
       </c>
     </row>
     <row r="3899">
       <c r="A3899" t="inlineStr">
         <is>
-          <t>LANDMARK FRAME CAMDEN TOWN</t>
+          <t>VINTAGE JINGLE BELLS HEART</t>
         </is>
       </c>
     </row>
     <row r="3900">
       <c r="A3900" t="inlineStr">
         <is>
-          <t>GARLAND, VINTAGE BELLS</t>
+          <t>VINTAGE JINGLE BELLS WREATH</t>
         </is>
       </c>
     </row>
     <row r="3901">
       <c r="A3901" t="inlineStr">
         <is>
-          <t>VINTAGE JINGLE BELLS HEART</t>
+          <t>WOODLAND LARGE BLUE FELT HEART</t>
         </is>
       </c>
     </row>
     <row r="3902">
       <c r="A3902" t="inlineStr">
         <is>
-          <t>VINTAGE JINGLE BELLS WREATH</t>
+          <t>WOODLAND LARGE PINK FELT HEART</t>
         </is>
       </c>
     </row>
     <row r="3903">
       <c r="A3903" t="inlineStr">
         <is>
-          <t>WOODLAND LARGE BLUE FELT HEART</t>
+          <t>WOODLAND LARGE RED FELT HEART</t>
         </is>
       </c>
     </row>
     <row r="3904">
       <c r="A3904" t="inlineStr">
         <is>
-          <t>WOODLAND LARGE PINK FELT HEART</t>
+          <t>ANTIQUE HEART SHELF UNIT</t>
         </is>
       </c>
     </row>
     <row r="3905">
       <c r="A3905" t="inlineStr">
         <is>
-          <t>WOODLAND LARGE RED FELT HEART</t>
+          <t>WOODLAND SMALL RED FELT HEART</t>
         </is>
       </c>
     </row>
     <row r="3906">
       <c r="A3906" t="inlineStr">
         <is>
-          <t>ANTIQUE HEART SHELF UNIT</t>
+          <t>SWEETHEART WALL TIDY</t>
         </is>
       </c>
     </row>
     <row r="3907">
       <c r="A3907" t="inlineStr">
         <is>
-          <t>WOODLAND SMALL RED FELT HEART</t>
+          <t>ROCOCO WALL MIRROR WHITE</t>
         </is>
       </c>
     </row>
     <row r="3908">
       <c r="A3908" t="inlineStr">
         <is>
-          <t>SWEETHEART WALL TIDY</t>
+          <t>SET 12 VINTAGE DOILY CHALK</t>
         </is>
       </c>
     </row>
     <row r="3909">
       <c r="A3909" t="inlineStr">
         <is>
-          <t>ROCOCO WALL MIRROR WHITE</t>
+          <t>BOTANICAL GARDENS WALL CLOCK</t>
         </is>
       </c>
     </row>
     <row r="3910">
       <c r="A3910" t="inlineStr">
         <is>
-          <t>SET 12 VINTAGE DOILY CHALK</t>
+          <t>VINTAGE BELLS GARLAND</t>
         </is>
       </c>
     </row>
     <row r="3911">
       <c r="A3911" t="inlineStr">
         <is>
-          <t>BOTANICAL GARDENS WALL CLOCK</t>
+          <t>ROCOCO WALL MIROR</t>
         </is>
       </c>
     </row>
     <row r="3912">
       <c r="A3912" t="inlineStr">
         <is>
-          <t>VINTAGE BELLS GARLAND</t>
+          <t>TRADITIONAL PICK UP STICKS GAME</t>
         </is>
       </c>
     </row>
     <row r="3913">
       <c r="A3913" t="inlineStr">
         <is>
-          <t>ROCOCO WALL MIROR</t>
+          <t>SET OF 3 MINI HANGING PORTRAITS</t>
         </is>
       </c>
     </row>
     <row r="3914">
       <c r="A3914" t="inlineStr">
         <is>
-          <t>TRADITIONAL PICK UP STICKS GAME</t>
+          <t>TRADITIONAL NAUGHTS &amp; CROSSES</t>
         </is>
       </c>
     </row>
     <row r="3915">
       <c r="A3915" t="inlineStr">
         <is>
-          <t>SET OF 3 MINI HANGING PORTRAITS</t>
+          <t>TRADTIONAL ALPHABET STAMP SET</t>
         </is>
       </c>
     </row>
     <row r="3916">
       <c r="A3916" t="inlineStr">
         <is>
-          <t>TRADITIONAL NAUGHTS &amp; CROSSES</t>
+          <t>SET 4 PICNIC CUTLERY BLUEBERRY</t>
         </is>
       </c>
     </row>
     <row r="3917">
       <c r="A3917" t="inlineStr">
         <is>
-          <t>TRADTIONAL ALPHABET STAMP SET</t>
+          <t>THREE MINI HANGING FRAMES</t>
         </is>
       </c>
     </row>
     <row r="3918">
       <c r="A3918" t="inlineStr">
         <is>
-          <t>SET 4 PICNIC CUTLERY BLUEBERRY</t>
+          <t>WOODLAND SMALL BLUE FELT HEART</t>
         </is>
       </c>
     </row>
     <row r="3919">
       <c r="A3919" t="inlineStr">
         <is>
-          <t>THREE MINI HANGING FRAMES</t>
+          <t>SET 10 CARDS WISHING TREE 17116</t>
         </is>
       </c>
     </row>
     <row r="3920">
       <c r="A3920" t="inlineStr">
         <is>
-          <t>WOODLAND SMALL BLUE FELT HEART</t>
+          <t>STRAWBERRY CERAMIC TRINKET POT</t>
         </is>
       </c>
     </row>
     <row r="3921">
       <c r="A3921" t="inlineStr">
         <is>
-          <t>SET 10 CARDS WISHING TREE 17116</t>
+          <t>VINTAGE DOILY JUMBO BAG RED</t>
         </is>
       </c>
     </row>
     <row r="3922">
       <c r="A3922" t="inlineStr">
         <is>
-          <t>STRAWBERRY CERAMIC TRINKET POT</t>
+          <t>LUNCH BAG PAISLEY PARK</t>
         </is>
       </c>
     </row>
     <row r="3923">
       <c r="A3923" t="inlineStr">
         <is>
-          <t>VINTAGE DOILY JUMBO BAG RED</t>
+          <t>JUMBO BAG PAISLEY PARK</t>
         </is>
       </c>
     </row>
     <row r="3924">
       <c r="A3924" t="inlineStr">
         <is>
-          <t>LUNCH BAG PAISLEY PARK</t>
+          <t>UBO-LIGHT TRIOBASE BLUE</t>
         </is>
       </c>
     </row>
     <row r="3925">
       <c r="A3925" t="inlineStr">
         <is>
-          <t>JUMBO BAG PAISLEY PARK</t>
+          <t>SET OF 36 VINTAGE CHRISTMAS DOILIES</t>
         </is>
       </c>
     </row>
     <row r="3926">
       <c r="A3926" t="inlineStr">
         <is>
-          <t>UBO-LIGHT TRIOBASE BLUE</t>
+          <t>SET OF 36 SPACEBOY PAPER DOILIES</t>
         </is>
       </c>
     </row>
     <row r="3927">
       <c r="A3927" t="inlineStr">
         <is>
-          <t>SET OF 36 VINTAGE CHRISTMAS DOILIES</t>
+          <t>SET OF 36 DOLLY GIRL PAPER DOILIES</t>
         </is>
       </c>
     </row>
     <row r="3928">
       <c r="A3928" t="inlineStr">
         <is>
-          <t>SET OF 36 SPACEBOY PAPER DOILIES</t>
+          <t>DECORATIVE VINTAGE COFFEE  BOX</t>
         </is>
       </c>
     </row>
     <row r="3929">
       <c r="A3929" t="inlineStr">
         <is>
-          <t>SET OF 36 DOLLY GIRL PAPER DOILIES</t>
+          <t>SET OF 36 PANTRY PAPER DOILIES</t>
         </is>
       </c>
     </row>
     <row r="3930">
       <c r="A3930" t="inlineStr">
         <is>
-          <t>DECORATIVE VINTAGE COFFEE  BOX</t>
+          <t>SET 4 PICNIC CUTLERY FONDANT</t>
         </is>
       </c>
     </row>
     <row r="3931">
       <c r="A3931" t="inlineStr">
         <is>
-          <t>SET OF 36 PANTRY PAPER DOILIES</t>
+          <t>WOODLAND SMALL PINK FELT HEART</t>
         </is>
       </c>
     </row>
     <row r="3932">
       <c r="A3932" t="inlineStr">
         <is>
-          <t>SET 4 PICNIC CUTLERY FONDANT</t>
+          <t>SET 10 CARDS PRINTED GRAPHIC 17219</t>
         </is>
       </c>
     </row>
     <row r="3933">
       <c r="A3933" t="inlineStr">
         <is>
-          <t>WOODLAND SMALL PINK FELT HEART</t>
+          <t>SET 10 CHRISTMAS CARDS HOHOHO 16956</t>
         </is>
       </c>
     </row>
     <row r="3934">
       <c r="A3934" t="inlineStr">
         <is>
-          <t>SET 10 CARDS PRINTED GRAPHIC 17219</t>
+          <t>SET 10 CARD SNOWMAN 16965</t>
         </is>
       </c>
     </row>
     <row r="3935">
       <c r="A3935" t="inlineStr">
         <is>
-          <t>SET 10 CHRISTMAS CARDS HOHOHO 16956</t>
+          <t>SILVER RECORD COVER FRAME</t>
         </is>
       </c>
     </row>
     <row r="3936">
       <c r="A3936" t="inlineStr">
         <is>
-          <t>SET 10 CARD SNOWMAN 16965</t>
+          <t>CLASSIC CHROME BICYCLE BELL</t>
         </is>
       </c>
     </row>
     <row r="3937">
       <c r="A3937" t="inlineStr">
         <is>
-          <t>SILVER RECORD COVER FRAME</t>
+          <t>SET 4 PICNIC CUTLERY CHERRY</t>
         </is>
       </c>
     </row>
     <row r="3938">
       <c r="A3938" t="inlineStr">
         <is>
-          <t>CLASSIC CHROME BICYCLE BELL</t>
+          <t>SET OF 3 PANTRY WOODEN SPOONS</t>
         </is>
       </c>
     </row>
     <row r="3939">
       <c r="A3939" t="inlineStr">
         <is>
-          <t>SET 4 PICNIC CUTLERY CHERRY</t>
+          <t>PANTRY KITCHEN THERMOMETER</t>
         </is>
       </c>
     </row>
     <row r="3940">
       <c r="A3940" t="inlineStr">
         <is>
-          <t>SET OF 3 PANTRY WOODEN SPOONS</t>
+          <t>CORDIAL JUG</t>
         </is>
       </c>
     </row>
     <row r="3941">
       <c r="A3941" t="inlineStr">
         <is>
-          <t>PANTRY KITCHEN THERMOMETER</t>
+          <t>SET 10 CARDS TRIANGLE ICONS  17220</t>
         </is>
       </c>
     </row>
     <row r="3942">
       <c r="A3942" t="inlineStr">
         <is>
-          <t>CORDIAL JUG</t>
+          <t>SET 10 CARDS WORLD CHILDREN 17067</t>
         </is>
       </c>
     </row>
     <row r="3943">
       <c r="A3943" t="inlineStr">
         <is>
-          <t>SET 10 CARDS TRIANGLE ICONS  17220</t>
+          <t>SET 10 CARDS CHRISTMAS BAUBLE 16954</t>
         </is>
       </c>
     </row>
     <row r="3944">
       <c r="A3944" t="inlineStr">
         <is>
-          <t>SET 10 CARDS WORLD CHILDREN 17067</t>
+          <t>LIGHT DECORATION BATTERY OPERATED</t>
         </is>
       </c>
     </row>
     <row r="3945">
       <c r="A3945" t="inlineStr">
         <is>
-          <t>SET 10 CARDS CHRISTMAS BAUBLE 16954</t>
+          <t>KEEP CALM BIRTHDAY WRAP</t>
         </is>
       </c>
     </row>
     <row r="3946">
       <c r="A3946" t="inlineStr">
         <is>
-          <t>LIGHT DECORATION BATTERY OPERATED</t>
+          <t>RUBY GLASS CLUSTER NECKLACE</t>
         </is>
       </c>
     </row>
     <row r="3947">
       <c r="A3947" t="inlineStr">
         <is>
-          <t>KEEP CALM BIRTHDAY WRAP</t>
+          <t>WRAP KEEP CALM BIRTHDAY</t>
         </is>
       </c>
     </row>
     <row r="3948">
       <c r="A3948" t="inlineStr">
         <is>
-          <t>RUBY GLASS CLUSTER NECKLACE</t>
+          <t>SET 10 CARDS RUDOLPHS NOSE 17097</t>
         </is>
       </c>
     </row>
     <row r="3949">
       <c r="A3949" t="inlineStr">
         <is>
-          <t>WRAP KEEP CALM BIRTHDAY</t>
+          <t>LUNCH BAG RED VINTAGE DOILY</t>
         </is>
       </c>
     </row>
     <row r="3950">
       <c r="A3950" t="inlineStr">
         <is>
-          <t>SET 10 CARDS RUDOLPHS NOSE 17097</t>
+          <t>BLACK SIL'T SQU CANDLE PLATE</t>
         </is>
       </c>
     </row>
     <row r="3951">
       <c r="A3951" t="inlineStr">
         <is>
-          <t>LUNCH BAG RED VINTAGE DOILY</t>
+          <t>damages wax</t>
         </is>
       </c>
     </row>
     <row r="3952">
       <c r="A3952" t="inlineStr">
         <is>
-          <t>BLACK SIL'T SQU CANDLE PLATE</t>
+          <t>ANT SILVER TURQUOISE BOUDICCA RING</t>
         </is>
       </c>
     </row>
     <row r="3953">
       <c r="A3953" t="inlineStr">
         <is>
-          <t>damages wax</t>
+          <t>PINK POLKADOT PLATE</t>
         </is>
       </c>
     </row>
     <row r="3954">
       <c r="A3954" t="inlineStr">
         <is>
-          <t>ANT SILVER TURQUOISE BOUDICCA RING</t>
+          <t>ST GEORGE SET OF 10 PARTY LIGHTS</t>
         </is>
       </c>
     </row>
     <row r="3955">
       <c r="A3955" t="inlineStr">
         <is>
-          <t>PINK POLKADOT PLATE</t>
+          <t>WRAP A PRETTY THANK YOU</t>
         </is>
       </c>
     </row>
     <row r="3956">
       <c r="A3956" t="inlineStr">
         <is>
-          <t>ST GEORGE SET OF 10 PARTY LIGHTS</t>
+          <t>CLASSIC CROME BICYCLE BELL</t>
         </is>
       </c>
     </row>
     <row r="3957">
       <c r="A3957" t="inlineStr">
         <is>
-          <t>WRAP A PRETTY THANK YOU</t>
+          <t>DOILY THANK YOU CARD</t>
         </is>
       </c>
     </row>
     <row r="3958">
       <c r="A3958" t="inlineStr">
         <is>
-          <t>CLASSIC CROME BICYCLE BELL</t>
+          <t>A PRETTY THANK YOU CARD</t>
         </is>
       </c>
     </row>
     <row r="3959">
       <c r="A3959" t="inlineStr">
         <is>
-          <t>DOILY THANK YOU CARD</t>
+          <t>SET 10 CARDS JINGLE BELLS 17217</t>
         </is>
       </c>
     </row>
     <row r="3960">
       <c r="A3960" t="inlineStr">
         <is>
-          <t>A PRETTY THANK YOU CARD</t>
+          <t>TUSCAN VILLA BIRD FEEDER</t>
         </is>
       </c>
     </row>
     <row r="3961">
       <c r="A3961" t="inlineStr">
         <is>
-          <t>SET 10 CARDS JINGLE BELLS 17217</t>
+          <t>PAPER BUNTING VINTAGE PARTY</t>
         </is>
       </c>
     </row>
     <row r="3962">
       <c r="A3962" t="inlineStr">
         <is>
-          <t>TUSCAN VILLA BIRD FEEDER</t>
+          <t>PAPER BUNTING PAISLEY PARK</t>
         </is>
       </c>
     </row>
     <row r="3963">
       <c r="A3963" t="inlineStr">
         <is>
-          <t>PAPER BUNTING VINTAGE PARTY</t>
+          <t>SET 10 CARDS DAVID'S MADONNA 17074</t>
         </is>
       </c>
     </row>
     <row r="3964">
       <c r="A3964" t="inlineStr">
         <is>
-          <t>PAPER BUNTING PAISLEY PARK</t>
+          <t>SET 10 CARDS XMAS GRAPHIC  17218</t>
         </is>
       </c>
     </row>
     <row r="3965">
       <c r="A3965" t="inlineStr">
         <is>
-          <t>Wrongly mrked had 85123a in box</t>
+          <t>LARGE PARLOUR FRAME</t>
         </is>
       </c>
     </row>
     <row r="3966">
       <c r="A3966" t="inlineStr">
         <is>
-          <t>SET 10 CARDS DAVID'S MADONNA 17074</t>
+          <t>MEDIUM PARLOUR FRAME</t>
         </is>
       </c>
     </row>
     <row r="3967">
       <c r="A3967" t="inlineStr">
         <is>
-          <t>SET 10 CARDS XMAS GRAPHIC  17218</t>
+          <t>SMALL PARLOUR FRAME</t>
         </is>
       </c>
     </row>
     <row r="3968">
       <c r="A3968" t="inlineStr">
         <is>
-          <t>LARGE PARLOUR FRAME</t>
+          <t>SET 10 CARDS 3 WISE MEN 17107</t>
         </is>
       </c>
     </row>
     <row r="3969">
       <c r="A3969" t="inlineStr">
         <is>
-          <t>MEDIUM PARLOUR FRAME</t>
+          <t>FLOWER SHOP DESIGN MUG</t>
         </is>
       </c>
     </row>
     <row r="3970">
       <c r="A3970" t="inlineStr">
         <is>
-          <t>SMALL PARLOUR FRAME</t>
+          <t>ROSE FLOWER CANDLE+INCENSE 16X16CM</t>
         </is>
       </c>
     </row>
     <row r="3971">
       <c r="A3971" t="inlineStr">
         <is>
-          <t>SET 10 CARDS 3 WISE MEN 17107</t>
+          <t>WHITE CHRISTMAS TREE 60CM</t>
         </is>
       </c>
     </row>
     <row r="3972">
       <c r="A3972" t="inlineStr">
         <is>
-          <t>FLOWER SHOP DESIGN MUG</t>
+          <t>PAISLEY PARK CARD</t>
         </is>
       </c>
     </row>
     <row r="3973">
       <c r="A3973" t="inlineStr">
         <is>
-          <t>ROSE FLOWER CANDLE+INCENSE 16X16CM</t>
+          <t>PACK 3 BOXES CHRISTMAS PANETTONE</t>
         </is>
       </c>
     </row>
     <row r="3974">
       <c r="A3974" t="inlineStr">
         <is>
-          <t>WHITE CHRISTMAS TREE 60CM</t>
+          <t>PACK OF 6 PANETTONE GIFT BOXES</t>
         </is>
       </c>
     </row>
     <row r="3975">
       <c r="A3975" t="inlineStr">
         <is>
-          <t>PAISLEY PARK CARD</t>
+          <t>PACK 3 BOXES BIRD PANETTONE</t>
         </is>
       </c>
     </row>
     <row r="3976">
       <c r="A3976" t="inlineStr">
         <is>
-          <t>PACK 3 BOXES CHRISTMAS PANETTONE</t>
+          <t>COLOURED GLASS STAR T-LIGHT HOLDER</t>
         </is>
       </c>
     </row>
     <row r="3977">
       <c r="A3977" t="inlineStr">
         <is>
-          <t>PACK OF 6 PANETTONE GIFT BOXES</t>
+          <t>SET 10 CARDS DECK THE HALLS 16960</t>
         </is>
       </c>
     </row>
     <row r="3978">
       <c r="A3978" t="inlineStr">
         <is>
-          <t>PACK 3 BOXES BIRD PANETTONE</t>
+          <t>12 HANGING EGGS HAND PAINTED</t>
         </is>
       </c>
     </row>
     <row r="3979">
       <c r="A3979" t="inlineStr">
         <is>
-          <t>COLOURED GLASS STAR T-LIGHT HOLDER</t>
+          <t>SET OF 6 EASTER RAINBOW CHICKS</t>
         </is>
       </c>
     </row>
     <row r="3980">
       <c r="A3980" t="inlineStr">
         <is>
-          <t>SET 10 CARDS DECK THE HALLS 16960</t>
+          <t>DUSTY PINK CHRISTMAS TREE 60CM</t>
         </is>
       </c>
     </row>
     <row r="3981">
       <c r="A3981" t="inlineStr">
         <is>
-          <t>12 HANGING EGGS HAND PAINTED</t>
+          <t>IVORY RETRO KITCHEN WALL CLOCK</t>
         </is>
       </c>
     </row>
     <row r="3982">
       <c r="A3982" t="inlineStr">
         <is>
-          <t>SET OF 6 EASTER RAINBOW CHICKS</t>
+          <t>SET 10 CARD CHRISTMAS STAMPS 16963</t>
         </is>
       </c>
     </row>
     <row r="3983">
       <c r="A3983" t="inlineStr">
         <is>
-          <t>DUSTY PINK CHRISTMAS TREE 60CM</t>
+          <t>John Lewis</t>
         </is>
       </c>
     </row>
     <row r="3984">
       <c r="A3984" t="inlineStr">
         <is>
-          <t>IVORY RETRO KITCHEN WALL CLOCK</t>
+          <t>WHITE MOROCCAN METAL LANTERN</t>
         </is>
       </c>
     </row>
     <row r="3985">
       <c r="A3985" t="inlineStr">
         <is>
-          <t>SET 10 CARD CHRISTMAS STAMPS 16963</t>
+          <t>CAT WITH SUNGLASSES BLANK CARD</t>
         </is>
       </c>
     </row>
     <row r="3986">
       <c r="A3986" t="inlineStr">
         <is>
-          <t>John Lewis</t>
+          <t>BLUE RETRO KITCHEN WALL CLOCK</t>
         </is>
       </c>
     </row>
     <row r="3987">
       <c r="A3987" t="inlineStr">
         <is>
-          <t>WHITE MOROCCAN METAL LANTERN</t>
+          <t>RED RETRO KITCHEN WALL CLOCK</t>
         </is>
       </c>
     </row>
     <row r="3988">
       <c r="A3988" t="inlineStr">
         <is>
-          <t>CAT WITH SUNGLASSES BLANK CARD</t>
+          <t>PURPLE FINE BEAD NECKLACE W TASSEL</t>
         </is>
       </c>
     </row>
     <row r="3989">
       <c r="A3989" t="inlineStr">
         <is>
-          <t>BLUE RETRO KITCHEN WALL CLOCK</t>
+          <t>HAND PAINTED HANGING EASTER EGG</t>
         </is>
       </c>
     </row>
     <row r="3990">
       <c r="A3990" t="inlineStr">
         <is>
-          <t>RED RETRO KITCHEN WALL CLOCK</t>
+          <t>wet pallet</t>
         </is>
       </c>
     </row>
     <row r="3991">
       <c r="A3991" t="inlineStr">
         <is>
-          <t>PURPLE FINE BEAD NECKLACE W TASSEL</t>
+          <t>PAINT YOUR OWN EGGS IN CRATE</t>
         </is>
       </c>
     </row>
     <row r="3992">
       <c r="A3992" t="inlineStr">
         <is>
-          <t>HAND PAINTED HANGING EASTER EGG</t>
+          <t>BICYCLE PUNCTURE REPAIR KIT</t>
         </is>
       </c>
     </row>
     <row r="3993">
       <c r="A3993" t="inlineStr">
         <is>
-          <t>wet pallet</t>
+          <t>CLASSIC BICYCLE CLIPS</t>
         </is>
       </c>
     </row>
     <row r="3994">
       <c r="A3994" t="inlineStr">
         <is>
-          <t>PAINT YOUR OWN EGGS IN CRATE</t>
+          <t>CROCHET LILAC/RED BEAR KEYRING</t>
         </is>
       </c>
     </row>
     <row r="3995">
       <c r="A3995" t="inlineStr">
         <is>
-          <t>BICYCLE PUNCTURE REPAIR KIT</t>
+          <t>SILVER AND BLACK ORBIT NECKLACE</t>
         </is>
       </c>
     </row>
     <row r="3996">
       <c r="A3996" t="inlineStr">
         <is>
-          <t>CLASSIC BICYCLE CLIPS</t>
+          <t>LARGE HEART FLOWERS HOOK</t>
         </is>
       </c>
     </row>
     <row r="3997">
       <c r="A3997" t="inlineStr">
         <is>
-          <t>CROCHET LILAC/RED BEAR KEYRING</t>
+          <t>GIN AND TONIC DIET METAL SIGN</t>
         </is>
       </c>
     </row>
     <row r="3998">
       <c r="A3998" t="inlineStr">
         <is>
-          <t>SILVER AND BLACK ORBIT NECKLACE</t>
+          <t>SNACK TRAY RED GINGHAM</t>
         </is>
       </c>
     </row>
     <row r="3999">
       <c r="A3999" t="inlineStr">
         <is>
-          <t>LARGE HEART FLOWERS HOOK</t>
+          <t>SNACK TRAY HAPPY FOREST</t>
         </is>
       </c>
     </row>
     <row r="4000">
       <c r="A4000" t="inlineStr">
         <is>
-          <t>GIN AND TONIC DIET METAL SIGN</t>
+          <t>SNACK TRAY PAISLEY PARK</t>
         </is>
       </c>
     </row>
     <row r="4001">
       <c r="A4001" t="inlineStr">
         <is>
-          <t>SNACK TRAY RED GINGHAM</t>
+          <t>SET OF 6 RIBBONS COUNTRY STYLE</t>
         </is>
       </c>
     </row>
     <row r="4002">
       <c r="A4002" t="inlineStr">
         <is>
-          <t>SNACK TRAY HAPPY FOREST</t>
+          <t>SNACK TRAY RED VINTAGE DOILY</t>
         </is>
       </c>
     </row>
     <row r="4003">
       <c r="A4003" t="inlineStr">
         <is>
-          <t>SNACK TRAY PAISLEY PARK</t>
+          <t>SET OF 6 RIBBONS PERFECTLY PRETTY</t>
         </is>
       </c>
     </row>
     <row r="4004">
       <c r="A4004" t="inlineStr">
         <is>
-          <t>SET OF 6 RIBBONS COUNTRY STYLE</t>
+          <t>SET OF 6 RIBBONS PARTY</t>
         </is>
       </c>
     </row>
     <row r="4005">
       <c r="A4005" t="inlineStr">
         <is>
-          <t>SNACK TRAY RED VINTAGE DOILY</t>
+          <t>SET 10 CARDS SNOWY ROBIN 17099</t>
         </is>
       </c>
     </row>
     <row r="4006">
       <c r="A4006" t="inlineStr">
         <is>
-          <t>SET OF 6 RIBBONS PERFECTLY PRETTY</t>
+          <t>lost in space</t>
         </is>
       </c>
     </row>
     <row r="4007">
       <c r="A4007" t="inlineStr">
         <is>
-          <t>SET OF 6 RIBBONS PARTY</t>
+          <t>SET 10 CARDS SWIRLY XMAS TREE 17104</t>
         </is>
       </c>
     </row>
     <row r="4008">
       <c r="A4008" t="inlineStr">
         <is>
-          <t>SET 10 CARDS SNOWY ROBIN 17099</t>
+          <t>LETTER "U" BLING KEY RING</t>
         </is>
       </c>
     </row>
     <row r="4009">
       <c r="A4009" t="inlineStr">
         <is>
-          <t>lost in space</t>
+          <t>CREAM HANGING HEART T-LIGHT HOLDER</t>
         </is>
       </c>
     </row>
     <row r="4010">
       <c r="A4010" t="inlineStr">
-        <is>
-          <t>SET 10 CARDS SWIRLY XMAS TREE 17104</t>
-        </is>
-      </c>
-    </row>
-    <row r="4011">
-      <c r="A4011" t="inlineStr">
-        <is>
-          <t>LETTER "U" BLING KEY RING</t>
-        </is>
-      </c>
-    </row>
-    <row r="4012">
-      <c r="A4012" t="inlineStr">
-        <is>
-          <t>CREAM HANGING HEART T-LIGHT HOLDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="4013">
-      <c r="A4013" t="inlineStr">
         <is>
           <t>PAPER CRAFT , LITTLE BIRDIE</t>
         </is>
